--- a/docs/spreadsheets/control_signals.xlsx
+++ b/docs/spreadsheets/control_signals.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Control Unit" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="82">
   <si>
     <t xml:space="preserve">EXTERNAL SIGNALS</t>
   </si>
@@ -60,7 +60,9 @@
     <t xml:space="preserve">result_src</t>
   </si>
   <si>
-    <t xml:space="preserve">hazard_unit, memory_stage, writeback_stage</t>
+    <t xml:space="preserve">hazard_unit
+memory_stage
+writeback_stage</t>
   </si>
   <si>
     <t xml:space="preserve">Determines what value is written back to the register file</t>
@@ -72,7 +74,11 @@
     <t xml:space="preserve">[1:0]</t>
   </si>
   <si>
-    <t xml:space="preserve">branching_buffer, branch_resolution_unit, branch_control_unit, ghr, icache_l1</t>
+    <t xml:space="preserve">branching_buffer 
+branch_resolution_unit
+branch_control_unit
+Ghr
+Icache_l1</t>
   </si>
   <si>
     <t xml:space="preserve">Indicates how instruction affects control flow</t>
@@ -87,7 +93,7 @@
     <t xml:space="preserve">execute_stage</t>
   </si>
   <si>
-    <t xml:space="preserve">Determines the b input to the ALU </t>
+    <t xml:space="preserve">Determines the b input to the alu</t>
   </si>
   <si>
     <t xml:space="preserve">pc_base_src</t>
@@ -99,7 +105,8 @@
     <t xml:space="preserve">reg_write</t>
   </si>
   <si>
-    <t xml:space="preserve">reg_file, hazard_unit</t>
+    <t xml:space="preserve">reg_file
+hazard_unit</t>
   </si>
   <si>
     <t xml:space="preserve">Determines if a register within the standard reg file is written to</t>
@@ -126,7 +133,7 @@
     <t xml:space="preserve">alu</t>
   </si>
   <si>
-    <t xml:space="preserve">Determines operation the ALU performs</t>
+    <t xml:space="preserve">Determines operation the alu performs</t>
   </si>
   <si>
     <t xml:space="preserve">width_src</t>
@@ -141,6 +148,34 @@
     <t xml:space="preserve">Determines width of data stored/read from data memory</t>
   </si>
   <si>
+    <t xml:space="preserve">csr_we</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csr_regfile
+hazard_unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determines if a csr register is written to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csr_src</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csr_decoder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determines the non-csr operand for the csr_alu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csr_control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csr_alu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determines the operation the csr_alu performs</t>
+  </si>
+  <si>
     <t xml:space="preserve">INTERNAL SIGNALS</t>
   </si>
   <si>
@@ -162,7 +197,8 @@
     <t xml:space="preserve">branch_control_unit</t>
   </si>
   <si>
-    <t xml:space="preserve">fetch_stage, hazard_unit</t>
+    <t xml:space="preserve">fetch_stage
+Hazard_unit</t>
   </si>
   <si>
     <t xml:space="preserve">Determines the signal that becomes pc_next</t>
@@ -174,7 +210,8 @@
     <t xml:space="preserve">src_reg (flop)</t>
   </si>
   <si>
-    <t xml:space="preserve">instr_cache_ctlr, hazard_unit</t>
+    <t xml:space="preserve">instr_cache_ctlr
+Hazard_unit</t>
   </si>
   <si>
     <t xml:space="preserve">A registered pc_src signal</t>
@@ -195,7 +232,8 @@
     <t xml:space="preserve">branch_resolution_unit</t>
   </si>
   <si>
-    <t xml:space="preserve">branch_predictor, branch_control_unit</t>
+    <t xml:space="preserve">branch_predictor
+Branch_control_unit</t>
   </si>
   <si>
     <t xml:space="preserve">Resolved result for a branch (1 = taken, 0 = untaken)</t>
@@ -424,18 +462,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E:E"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="81.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -481,7 +519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>11</v>
       </c>
@@ -491,14 +529,14 @@
       <c r="C4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="57.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>14</v>
       </c>
@@ -508,7 +546,7 @@
       <c r="C5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="0" t="s">
@@ -549,7 +587,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>24</v>
       </c>
@@ -559,7 +597,7 @@
       <c r="C8" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="0" t="s">
@@ -617,64 +655,115 @@
         <v>38</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
+      <c r="A13" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B16" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C16" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D16" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E16" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="0" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C17" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D17" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="0" t="s">
+      <c r="E17" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D18" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>43</v>
+      <c r="E18" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -693,18 +782,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E:E"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="81.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -733,115 +822,115 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>46</v>
+        <v>54</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>51</v>
-      </c>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>1</v>
+      <c r="A7" s="0" t="s">
+        <v>61</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>45</v>
+        <v>65</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -862,16 +951,16 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E:E"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="81.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -902,41 +991,41 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -962,19 +1051,19 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
